--- a/Document/시스템 기획서/몬스터/드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/드림 캐쳐(가명).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 패턴은 1, 2번 돌아가며 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 예외처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>용어 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,10 +140,6 @@
   </si>
   <si>
     <t>4. 공격거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 패턴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -203,10 +191,6 @@
       </rPr>
       <t xml:space="preserve">, 공격거리, </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패턴1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -289,12 +273,231 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  - 무기를 왼쪽에서 오른쪽으로 크게 휘드르는 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패턴은 2번 먼저 사용하며 패턴2는 쿨타임이 존재함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패턴1은 쿨타임이 존재하지 않아 패턴2가 쿨타임일때 패턴1을 계속 사용.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 무기를 전방으로 찌르며 대쉬하는 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>몬스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">패턴1 히트 거리, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이동거리</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패턴2는 쿨타임이 존재함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패턴2가 쿨타임일때는 패턴1만 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패턴1 [휘두르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 패턴2 [찌르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패턴1은 쿨타임이 존재하지않음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 패턴은 무기의 히트박스에 영향을 받지만 패턴중에만 충돌을 체크함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴의 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴의 재사용 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 패턴은 사용한후 대기시간을 가짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴후 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 이동속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴의 재사용대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +618,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -637,13 +848,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -704,13 +915,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -761,13 +972,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -821,13 +1032,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -878,13 +1089,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -935,13 +1146,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -995,13 +1206,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1043,6 +1254,510 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>몬스터</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="11201400"/>
+          <a:ext cx="1076325" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="16668750"/>
+          <a:ext cx="1352550" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="모서리가 둥근 직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="16821150"/>
+          <a:ext cx="2257425" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="타원 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="11191875"/>
+          <a:ext cx="1076325" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="타원 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="16440150"/>
+          <a:ext cx="1076325" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="20231100"/>
+          <a:ext cx="1352550" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="모서리가 둥근 직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="16821150"/>
+          <a:ext cx="2257425" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="타원 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="19992975"/>
+          <a:ext cx="1076325" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444088</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451263</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>61658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="원호 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13577031">
+          <a:off x="2943480" y="10488200"/>
+          <a:ext cx="2628391" cy="2750375"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1410,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L60"/>
+  <dimension ref="B2:O106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1423,150 +2138,204 @@
     <col min="12" max="12" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="K13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1577,7 +2346,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1588,7 +2357,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1599,7 +2368,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1610,7 +2379,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1699,95 +2468,87 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-    </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1797,8 +2558,19 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -1808,8 +2580,13 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -1819,8 +2596,13 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -1830,8 +2612,13 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -1841,8 +2628,13 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -1853,7 +2645,7 @@
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -1864,7 +2656,7 @@
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -1875,7 +2667,7 @@
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -1886,16 +2678,495 @@
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="18"/>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="20"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="20"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="20"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="21"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="20"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="20"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="20"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="20"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="20"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="20"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="20"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="20"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="20"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="20"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="20"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="20"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="21"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="20"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="20"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="20"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="20"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="20"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="20"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="20"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="20"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="20"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="20"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="20"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="20"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="21"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/시스템 기획서/몬스터/드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/드림 캐쳐(가명).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 간단한 패턴을 가지고 유저를 방해함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 약하지만 뭉치면 강한 대미지로 유저에게 방해와 스킬사용에 대한 고민을 유도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,22 +83,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 추적을 하는 몬스터는 공격 거리까지 유저를 추적함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 공격거리 안에 유저가 있을 시 패턴을 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 예외처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 패턴이 시작되면 패턴이 종료될때까지 진행함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -119,10 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>패턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터가 공격하는 형식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,7 +119,219 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4. 공격거리</t>
+    <t xml:space="preserve">  - 무기를 왼쪽에서 오른쪽으로 크게 휘드르는 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 무기를 전방으로 찌르며 대쉬하는 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격후 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 스킬1 [휘두르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 스킬2 [찌르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬2는 쿨타임이 존재함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬2가 쿨타임일때는 패턴1만 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 재사용 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬1은 쿨타임이 존재하지않음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 간단한 스킬을 가지고 유저를 방해함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 공격거리 안에 유저가 있을 시 스킬을 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬은 2번 먼저 사용하며 스킬2는 쿨타임이 존재함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬1은 쿨타임이 존재하지 않아 스킬2가 쿨타임일때 패턴1을 계속 사용.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 스킬은 무기의 히트박스에 영향을 받지만 스킬중에만 충돌을 체크함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 스킬은 사용한후 대기시간을 가짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 스킬 공격범위는 무기를 기준으로  한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬이 시작되면 종료될때까지 진행함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterHP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterDefance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCritical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCriDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 최대 체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 이동속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 방어력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 크리티컬 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 크리티컬 대미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 기본수치 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 드림 캐쳐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 공격거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 공격 인식거리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -189,8 +381,12 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 공격거리, </t>
+      <t xml:space="preserve">, 공격 인식거리, </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 추적을 하는 몬스터는 공격 인식거리까지 유저를 추적함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -247,7 +443,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>공격거리</t>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인식거리</t>
     </r>
     <r>
       <rPr>
@@ -271,22 +489,6 @@
       </rPr>
       <t>패턴1 히트 거리</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 무기를 왼쪽에서 오른쪽으로 크게 휘드르는 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패턴은 2번 먼저 사용하며 패턴2는 쿨타임이 존재함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패턴1은 쿨타임이 존재하지 않아 패턴2가 쿨타임일때 패턴1을 계속 사용.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 무기를 전방으로 찌르며 대쉬하는 공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -343,7 +545,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>공격거리</t>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인식거리</t>
     </r>
     <r>
       <rPr>
@@ -365,7 +589,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">패턴1 히트 거리, </t>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 히트 거리, </t>
     </r>
     <r>
       <rPr>
@@ -381,115 +627,169 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대쉬전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대쉬후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패턴2는 쿨타임이 존재함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패턴2가 쿨타임일때는 패턴1만 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 패턴1 [휘두르기]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 패턴2 [찌르기]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패턴1은 쿨타임이 존재하지않음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 패턴은 무기의 히트박스에 영향을 받지만 패턴중에만 충돌을 체크함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴의 공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴의 재사용 대기시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 패턴은 사용한후 대기시간을 가짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StandTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴후 대기시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 이동속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴의 재사용대기시간</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>몬스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인식거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 히트 거리, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이동거리</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 총 모션 시간 1.5~2초 [애니메이터와 추가 협의 할것]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬1[휘두르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬2[찌르기]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+  </si>
+  <si>
+    <t>SkillAtk 1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격후 대기시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 총 모션 시간 2~2.5초 [애니메이터와 추가 협의 할것]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +797,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +931,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -755,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +1159,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -848,13 +1191,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -915,13 +1258,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -972,13 +1315,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1032,13 +1375,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1089,13 +1432,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1146,13 +1489,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1206,13 +1549,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1263,13 +1606,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1320,13 +1663,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1376,13 +1719,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1430,13 +1773,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1487,13 +1830,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1544,13 +1887,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1600,13 +1943,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1654,13 +1997,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1711,13 +2054,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2029,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2075,46 +2418,95 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="23">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
+    </row>
+    <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2125,228 +2517,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O106"/>
+  <dimension ref="B2:P112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="42.625" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L8" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="8">
+        <v>10</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="8">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="8">
+        <v>100</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="8">
+        <v>10</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="8">
+        <v>5</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="L20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="8">
+        <v>7</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2357,7 +2809,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2368,7 +2820,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2378,8 +2830,9 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2389,8 +2842,9 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2400,8 +2854,9 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2411,8 +2866,9 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -2422,8 +2878,9 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2433,8 +2890,9 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -2444,8 +2902,9 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2455,8 +2914,9 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2466,8 +2926,9 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -2477,8 +2938,9 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2488,137 +2950,96 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="P53" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
+      <c r="L54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="20"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="20"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N54" s="8">
+        <v>5</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -2628,13 +3049,21 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2644,8 +3073,13 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -2655,8 +3089,9 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -2666,8 +3101,9 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2677,8 +3113,9 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2688,11 +3125,9 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="L60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -2702,8 +3137,9 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -2713,8 +3149,12 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K62" s="14"/>
+      <c r="M62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -2724,8 +3164,9 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -2735,162 +3176,140 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="21"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="20"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="20"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="20"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="21"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B74" s="22" t="s">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B80" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12"/>
+      <c r="L80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N80" s="8">
+        <v>10</v>
+      </c>
+      <c r="O80" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L74" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B75" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O75" s="8"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B76" s="20"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B78" s="20"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="20"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="20"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="20"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B81" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -2899,8 +3318,21 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L81" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N81" s="8">
+        <v>20</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="20"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
@@ -2910,8 +3342,21 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L82" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="8">
+        <v>1</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="20"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
@@ -2921,8 +3366,13 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="20"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -2933,7 +3383,7 @@
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="20"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -2943,8 +3393,9 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="20"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -2954,8 +3405,9 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="20"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
@@ -2965,8 +3417,9 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="20"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -2976,35 +3429,46 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="21"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="12"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B89" s="20"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="14"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B90" s="20"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="14"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B91" s="20"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="14"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B92" s="20"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
@@ -3013,8 +3477,9 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="14"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="20"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
@@ -3024,8 +3489,9 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="14"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="20"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
@@ -3035,42 +3501,38 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="20"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="20"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="20"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="20"/>
+      <c r="K94" s="14"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B95" s="21"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="14"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -3079,8 +3541,9 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="20"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
@@ -3090,8 +3553,9 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="14"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="20"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
@@ -3101,8 +3565,9 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="20"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
@@ -3112,8 +3577,9 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="20"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
@@ -3123,8 +3589,9 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K102" s="14"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="20"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
@@ -3134,8 +3601,9 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K103" s="14"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="20"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -3145,8 +3613,9 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K104" s="14"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="20"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
@@ -3156,17 +3625,91 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="21"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="18"/>
+      <c r="K105" s="14"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="14"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="20"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="14"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="20"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="14"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="20"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="14"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="20"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="14"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="20"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="14"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="21"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/시스템 기획서/몬스터/드림 캐쳐(가명).xlsx
+++ b/Document/시스템 기획서/몬스터/드림 캐쳐(가명).xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="드림캐쳐 " sheetId="2" r:id="rId2"/>
+    <sheet name="흐름도" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>드림 캐쳐(가명) 몬스터 문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,10 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>용어 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,10 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - 모든 스킬은 사용한후 대기시간을 가짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 스킬 공격범위는 무기를 기준으로  한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -790,6 +783,30 @@
   </si>
   <si>
     <t xml:space="preserve">  - 총 모션 시간 2~2.5초 [애니메이터와 추가 협의 할것]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬2의 공격 거리는 스킬1의 2배로 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 스킬 공격범위는 무기를 기준으로  함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스킬1의 사거리 안이라도 스킬2의 쿨타임이 0라면 스킬2사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 흐름도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1189,15 +1206,135 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="순서도: 추출 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2895599" y="5981701"/>
+          <a:ext cx="1695450" cy="3028951"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161923</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="순서도: 추출 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2581274" y="16954500"/>
+          <a:ext cx="1695450" cy="3028951"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartExtract">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1258,13 +1395,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1315,13 +1452,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1375,13 +1512,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1432,13 +1569,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1489,13 +1626,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1505,7 +1642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3486149" y="10258425"/>
+          <a:off x="3486149" y="12144375"/>
           <a:ext cx="1695450" cy="1695450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartExtract">
@@ -1549,13 +1686,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1606,13 +1743,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1663,13 +1800,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1719,13 +1856,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1773,13 +1910,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1830,13 +1967,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1887,13 +2024,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1943,13 +2080,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1997,13 +2134,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2054,13 +2191,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444088</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>157417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451263</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>61658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2104,6 +2241,54 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>417075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="561975"/>
+          <a:ext cx="3817500" cy="4900134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2372,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2422,10 +2607,10 @@
         <v>43671</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2467,7 +2652,7 @@
     </row>
     <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
@@ -2475,37 +2660,42 @@
     </row>
     <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2517,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P112"/>
+  <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2545,18 +2735,18 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -2564,18 +2754,18 @@
         <v>11</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -2593,221 +2783,215 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" s="8">
         <v>10</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" s="8">
         <v>20</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N15" s="8">
         <v>1</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N16" s="8">
         <v>100</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N17" s="8">
         <v>10</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N18" s="8">
         <v>5</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
       <c r="L19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N19" s="8">
         <v>2</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L20" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N20" s="8">
         <v>5</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>55</v>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N21" s="8">
         <v>7</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="B29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
@@ -2830,7 +3014,6 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
@@ -2965,101 +3148,104 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>23</v>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>82</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="N53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="10" t="s">
+      <c r="O53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="10" t="s">
+      <c r="P53" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="10" t="s">
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L54" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="12"/>
-      <c r="L54" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="M54" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N54" s="8">
         <v>5</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="20"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
+      <c r="B55" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
       <c r="L55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="N55" s="8">
         <v>1</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P55" s="8"/>
     </row>
@@ -3089,7 +3275,6 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="14"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
@@ -3151,7 +3336,7 @@
       <c r="J62" s="15"/>
       <c r="K62" s="14"/>
       <c r="M62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
@@ -3227,113 +3412,116 @@
       <c r="K68" s="14"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="21"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15"/>
       <c r="K69" s="14"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="21"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>24</v>
+      <c r="B73" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>89</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M79" s="10" t="s">
+      <c r="N79" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N79" s="10" t="s">
+      <c r="O79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O79" s="10" t="s">
+      <c r="P79" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P79" s="10" t="s">
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L80" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="12"/>
-      <c r="L80" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="M80" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N80" s="8">
         <v>10</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P80" s="8"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
+      <c r="B81" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="12"/>
       <c r="L81" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N81" s="8">
         <v>20</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P81" s="8"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="20"/>
+      <c r="B82" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -3343,16 +3531,16 @@
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
       <c r="L82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M82" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="N82" s="8">
         <v>1</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P82" s="8"/>
     </row>
@@ -3393,7 +3581,6 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="14"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="20"/>
@@ -3504,47 +3691,47 @@
       <c r="K94" s="14"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="21"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="18"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="15"/>
       <c r="K95" s="14"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="14"/>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B96" s="21"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="14"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
+      <c r="B98" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="12"/>
       <c r="K98" s="14"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="20"/>
+      <c r="B99" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -3700,16 +3887,28 @@
       <c r="K111" s="14"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="21"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="18"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="15"/>
       <c r="K112" s="14"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="21"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3717,4 +3916,29 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>